--- a/data/pca/factorExposure/factorExposure_2012-12-21.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-12-21.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.0002122514198170713</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.00180561708979314</v>
+      </c>
+      <c r="C2">
+        <v>-0.03162171858232764</v>
+      </c>
+      <c r="D2">
+        <v>0.005714414790840301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.0006475781628236454</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.0064233023958843</v>
+      </c>
+      <c r="C4">
+        <v>-0.08401140061186967</v>
+      </c>
+      <c r="D4">
+        <v>0.07894080780903141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.000284355149932627</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01446780291872306</v>
+      </c>
+      <c r="C6">
+        <v>-0.1139214659431026</v>
+      </c>
+      <c r="D6">
+        <v>0.03385131166136948</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.001755496253513269</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.005165556699370837</v>
+      </c>
+      <c r="C7">
+        <v>-0.05825221215905678</v>
+      </c>
+      <c r="D7">
+        <v>0.03065854071493718</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0008336805384887667</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005877684813831974</v>
+      </c>
+      <c r="C8">
+        <v>-0.03791078662232299</v>
+      </c>
+      <c r="D8">
+        <v>0.04024617824743845</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.003380726084931949</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.004576328196332231</v>
+      </c>
+      <c r="C9">
+        <v>-0.07026908917673508</v>
+      </c>
+      <c r="D9">
+        <v>0.07304034523762309</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.002854224792540715</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005439134399099485</v>
+      </c>
+      <c r="C10">
+        <v>-0.05808400457017342</v>
+      </c>
+      <c r="D10">
+        <v>-0.1984518436811916</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.002590910649882676</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005894548068741259</v>
+      </c>
+      <c r="C11">
+        <v>-0.07976527601548469</v>
+      </c>
+      <c r="D11">
+        <v>0.05993560861098137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.0005353169636465502</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.004207376705995311</v>
+      </c>
+      <c r="C12">
+        <v>-0.06408887809859176</v>
+      </c>
+      <c r="D12">
+        <v>0.04638270426589809</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.002015879048132847</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.009160077776705756</v>
+      </c>
+      <c r="C13">
+        <v>-0.06893121116355753</v>
+      </c>
+      <c r="D13">
+        <v>0.05731512596958758</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.0009149818113095241</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001656894358539479</v>
+      </c>
+      <c r="C14">
+        <v>-0.04541680439829188</v>
+      </c>
+      <c r="D14">
+        <v>0.004109174042189946</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.0007194037768373273</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.006109817405606407</v>
+      </c>
+      <c r="C15">
+        <v>-0.04204237281039399</v>
+      </c>
+      <c r="D15">
+        <v>0.02824734441860623</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.0006206020117912636</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.005172774197491866</v>
+      </c>
+      <c r="C16">
+        <v>-0.06501949913276212</v>
+      </c>
+      <c r="D16">
+        <v>0.04873714061414593</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.0002273970501392251</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.009103484337500578</v>
+      </c>
+      <c r="C20">
+        <v>-0.06558244392157159</v>
+      </c>
+      <c r="D20">
+        <v>0.04226943856606211</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005682781067222575</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.01003620826115754</v>
+      </c>
+      <c r="C21">
+        <v>-0.02092414216876977</v>
+      </c>
+      <c r="D21">
+        <v>0.03820897273926772</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01583330264160807</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.006575243914850691</v>
+      </c>
+      <c r="C22">
+        <v>-0.09370738528284317</v>
+      </c>
+      <c r="D22">
+        <v>0.1081482558803252</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01613266168236528</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006390850954850438</v>
+      </c>
+      <c r="C23">
+        <v>-0.09451934570132389</v>
+      </c>
+      <c r="D23">
+        <v>0.1081663489255309</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.001341695500993118</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.005648173487218446</v>
+      </c>
+      <c r="C24">
+        <v>-0.07639262952955324</v>
+      </c>
+      <c r="D24">
+        <v>0.06336983786568742</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.003876223213498129</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.003191000533272666</v>
+      </c>
+      <c r="C25">
+        <v>-0.07853350247425531</v>
+      </c>
+      <c r="D25">
+        <v>0.06683255083490515</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.004510865658667034</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003755969873613701</v>
+      </c>
+      <c r="C26">
+        <v>-0.04116593164720091</v>
+      </c>
+      <c r="D26">
+        <v>0.02341847994487211</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.004313474564645662</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.0006894907053629835</v>
+      </c>
+      <c r="C28">
+        <v>-0.1067031718019655</v>
+      </c>
+      <c r="D28">
+        <v>-0.3164502834763452</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.001360105896609094</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.003481859348457037</v>
+      </c>
+      <c r="C29">
+        <v>-0.05107486931455584</v>
+      </c>
+      <c r="D29">
+        <v>0.006751148789911826</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.002950387981465513</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.009693238753884408</v>
+      </c>
+      <c r="C30">
+        <v>-0.1415503827413483</v>
+      </c>
+      <c r="D30">
+        <v>0.09355544836362722</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.00101199740831041</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006360347235425694</v>
+      </c>
+      <c r="C31">
+        <v>-0.04456587701662515</v>
+      </c>
+      <c r="D31">
+        <v>0.0306033060377596</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0007405979190507614</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.004203803275664815</v>
+      </c>
+      <c r="C32">
+        <v>-0.04008660209696838</v>
+      </c>
+      <c r="D32">
+        <v>0.02010370177613164</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.002552775324095322</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.008674887225492662</v>
+      </c>
+      <c r="C33">
+        <v>-0.08662774437115482</v>
+      </c>
+      <c r="D33">
+        <v>0.06548261687119789</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.004417591508049233</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.004098948861398431</v>
+      </c>
+      <c r="C34">
+        <v>-0.05810028459920621</v>
+      </c>
+      <c r="D34">
+        <v>0.05394117316135601</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.001428818590588231</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.005057644025631384</v>
+      </c>
+      <c r="C35">
+        <v>-0.04026163687404175</v>
+      </c>
+      <c r="D35">
+        <v>0.01727311898259664</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.003763559892256736</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001070924032793976</v>
+      </c>
+      <c r="C36">
+        <v>-0.0245382313137257</v>
+      </c>
+      <c r="D36">
+        <v>0.02109543799284456</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.002657028771710771</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009494515326568888</v>
+      </c>
+      <c r="C38">
+        <v>-0.034115213516359</v>
+      </c>
+      <c r="D38">
+        <v>0.01422949717225584</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01130662507447678</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.0003361807165213799</v>
+      </c>
+      <c r="C39">
+        <v>-0.1155782082494117</v>
+      </c>
+      <c r="D39">
+        <v>0.07320861193588629</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.009359194376675005</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.002834168556695452</v>
+      </c>
+      <c r="C40">
+        <v>-0.09007325793075692</v>
+      </c>
+      <c r="D40">
+        <v>0.01096965987040865</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>2.327421178228744e-05</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007347390164358628</v>
+      </c>
+      <c r="C41">
+        <v>-0.03820167462252982</v>
+      </c>
+      <c r="D41">
+        <v>0.03601165337072907</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.003037430317872329</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.004184602473996902</v>
+      </c>
+      <c r="C43">
+        <v>-0.0535764701154012</v>
+      </c>
+      <c r="D43">
+        <v>0.02412115733654064</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.004195476418424886</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003570956614897331</v>
+      </c>
+      <c r="C44">
+        <v>-0.1092642042134471</v>
+      </c>
+      <c r="D44">
+        <v>0.06641541943729701</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.001140581034129643</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002313318342584404</v>
+      </c>
+      <c r="C46">
+        <v>-0.03326999370986728</v>
+      </c>
+      <c r="D46">
+        <v>0.03476962469554575</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.000191275460820119</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002814162346062491</v>
+      </c>
+      <c r="C47">
+        <v>-0.03747735210865822</v>
+      </c>
+      <c r="D47">
+        <v>0.02173551811687005</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.003811617686498751</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006757136947734175</v>
+      </c>
+      <c r="C48">
+        <v>-0.03103249993125674</v>
+      </c>
+      <c r="D48">
+        <v>0.03200178249851125</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.01171395937822524</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01587137036412575</v>
+      </c>
+      <c r="C49">
+        <v>-0.1851304804828773</v>
+      </c>
+      <c r="D49">
+        <v>0.01581872101452323</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.00162074641416966</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003751408595986602</v>
+      </c>
+      <c r="C50">
+        <v>-0.04353740425998166</v>
+      </c>
+      <c r="D50">
+        <v>0.03620686523485066</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.0007949585589723373</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004493596383087494</v>
+      </c>
+      <c r="C51">
+        <v>-0.02598236191542008</v>
+      </c>
+      <c r="D51">
+        <v>0.02026102135298966</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.001247206434695998</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02134731898161196</v>
+      </c>
+      <c r="C53">
+        <v>-0.1697073756642977</v>
+      </c>
+      <c r="D53">
+        <v>0.02575100577790778</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.001069829631823226</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008864904625807569</v>
+      </c>
+      <c r="C54">
+        <v>-0.05405718421453704</v>
+      </c>
+      <c r="D54">
+        <v>0.04404832681967008</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.003339482988227983</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009889214387261485</v>
+      </c>
+      <c r="C55">
+        <v>-0.1094333614136993</v>
+      </c>
+      <c r="D55">
+        <v>0.03870812553394548</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.002907853121491818</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.02048162418250289</v>
+      </c>
+      <c r="C56">
+        <v>-0.1739464410470518</v>
+      </c>
+      <c r="D56">
+        <v>0.01999061561510445</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.006665480241537985</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01960921709338497</v>
+      </c>
+      <c r="C58">
+        <v>-0.1102472336572232</v>
+      </c>
+      <c r="D58">
+        <v>0.05517325555736151</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.006115169419607653</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.01018099018246693</v>
+      </c>
+      <c r="C59">
+        <v>-0.1646882150404236</v>
+      </c>
+      <c r="D59">
+        <v>-0.3260994564383071</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.003353658364147566</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02459097185039921</v>
+      </c>
+      <c r="C60">
+        <v>-0.2225366859354808</v>
+      </c>
+      <c r="D60">
+        <v>0.03336409197290838</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01388307529620686</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.001551380182509239</v>
+      </c>
+      <c r="C61">
+        <v>-0.0948176693911392</v>
+      </c>
+      <c r="D61">
+        <v>0.05481878105952501</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1629911324087789</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1453264615778192</v>
+      </c>
+      <c r="C62">
+        <v>-0.09431929848174517</v>
+      </c>
+      <c r="D62">
+        <v>0.0402424020444713</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.00052386430829424</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006443282032046934</v>
+      </c>
+      <c r="C63">
+        <v>-0.05503288422502935</v>
+      </c>
+      <c r="D63">
+        <v>0.02814517259234306</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.0005498247211049327</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01553321801536133</v>
+      </c>
+      <c r="C64">
+        <v>-0.1048626964783336</v>
+      </c>
+      <c r="D64">
+        <v>0.05850278755817519</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.003142916390888285</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01829831729151244</v>
+      </c>
+      <c r="C65">
+        <v>-0.1241797759107178</v>
+      </c>
+      <c r="D65">
+        <v>0.02317255857518624</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.007255546504240836</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01338889006369202</v>
+      </c>
+      <c r="C66">
+        <v>-0.1596514472186484</v>
+      </c>
+      <c r="D66">
+        <v>0.1110646943017152</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.003767720950505915</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01573498309812764</v>
+      </c>
+      <c r="C67">
+        <v>-0.06496013558269059</v>
+      </c>
+      <c r="D67">
+        <v>0.02606621814270933</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.005537287565046224</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.0008368616575527068</v>
+      </c>
+      <c r="C68">
+        <v>-0.08702149235576075</v>
+      </c>
+      <c r="D68">
+        <v>-0.2597835435558562</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.001889928126060471</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.006336719957803762</v>
+      </c>
+      <c r="C69">
+        <v>-0.05051294568064114</v>
+      </c>
+      <c r="D69">
+        <v>0.04030150651348492</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>-0.0002697454240288239</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001842091835365401</v>
+      </c>
+      <c r="C70">
+        <v>-0.002692139548069549</v>
+      </c>
+      <c r="D70">
+        <v>0.001260304462964521</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.0002449800511238799</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.005950737817321916</v>
+      </c>
+      <c r="C71">
+        <v>-0.09457713507058881</v>
+      </c>
+      <c r="D71">
+        <v>-0.3062525755714881</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.003793447767313463</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01660798571545981</v>
+      </c>
+      <c r="C72">
+        <v>-0.15382685969244</v>
+      </c>
+      <c r="D72">
+        <v>0.02107134305896312</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.01121584397695758</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.0314795913994364</v>
+      </c>
+      <c r="C73">
+        <v>-0.2800757528471807</v>
+      </c>
+      <c r="D73">
+        <v>0.05599955798858378</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.004632863729520749</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.00221629330022918</v>
+      </c>
+      <c r="C74">
+        <v>-0.1046569447255449</v>
+      </c>
+      <c r="D74">
+        <v>0.03570049092590209</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.002337511126296075</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01125880760747345</v>
+      </c>
+      <c r="C75">
+        <v>-0.1244647855904954</v>
+      </c>
+      <c r="D75">
+        <v>0.02350467974088101</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.009052895871246166</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02214427198516112</v>
+      </c>
+      <c r="C76">
+        <v>-0.1485564730798121</v>
+      </c>
+      <c r="D76">
+        <v>0.05778260445421318</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.002045874348163976</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02372161752822902</v>
+      </c>
+      <c r="C77">
+        <v>-0.1222619491941353</v>
+      </c>
+      <c r="D77">
+        <v>0.09443929950232842</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.001060538944301457</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01499244707609252</v>
+      </c>
+      <c r="C78">
+        <v>-0.09577543893226513</v>
+      </c>
+      <c r="D78">
+        <v>0.07061423859944069</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02334821305651945</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.0380290764249924</v>
+      </c>
+      <c r="C79">
+        <v>-0.1565361506710434</v>
+      </c>
+      <c r="D79">
+        <v>0.03245008656684095</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.00682276342281822</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01043225393118845</v>
+      </c>
+      <c r="C80">
+        <v>-0.03978312395576862</v>
+      </c>
+      <c r="D80">
+        <v>0.02797105959553145</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.0006252169432912538</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01561110555500731</v>
+      </c>
+      <c r="C81">
+        <v>-0.1267561942312584</v>
+      </c>
+      <c r="D81">
+        <v>0.03948042354558214</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.005782832450645229</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.02021569069603829</v>
+      </c>
+      <c r="C82">
+        <v>-0.1416770922200997</v>
+      </c>
+      <c r="D82">
+        <v>0.03432173070182073</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.009388859477767453</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.01003706718867795</v>
+      </c>
+      <c r="C83">
+        <v>-0.05510508870162639</v>
+      </c>
+      <c r="D83">
+        <v>0.05152711121431648</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01338478257870987</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01168851320783201</v>
+      </c>
+      <c r="C84">
+        <v>-0.03699099712279396</v>
+      </c>
+      <c r="D84">
+        <v>-0.008899173908391386</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01418378328713741</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02858775583714001</v>
+      </c>
+      <c r="C85">
+        <v>-0.124151548630458</v>
+      </c>
+      <c r="D85">
+        <v>0.04579076490608227</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.001325325857730427</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.005959059568626765</v>
+      </c>
+      <c r="C86">
+        <v>-0.04950904580243314</v>
+      </c>
+      <c r="D86">
+        <v>0.03064872634390508</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.003275980142736415</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01037300067868043</v>
+      </c>
+      <c r="C87">
+        <v>-0.1282803599907857</v>
+      </c>
+      <c r="D87">
+        <v>0.07546246439454209</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01140995813264299</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.002803077213490024</v>
+      </c>
+      <c r="C88">
+        <v>-0.06486107236267297</v>
+      </c>
+      <c r="D88">
+        <v>0.01783824127141131</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01283013537528767</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.001025093154103987</v>
+      </c>
+      <c r="C89">
+        <v>-0.1466380679492983</v>
+      </c>
+      <c r="D89">
+        <v>-0.3378187120444056</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-1.752565595686502e-05</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.007265588784976406</v>
+      </c>
+      <c r="C90">
+        <v>-0.1208461437148196</v>
+      </c>
+      <c r="D90">
+        <v>-0.3185754041763678</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.0008376243653592813</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01063356388434388</v>
+      </c>
+      <c r="C91">
+        <v>-0.1002669890195229</v>
+      </c>
+      <c r="D91">
+        <v>0.02079070109523754</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.006835795869794734</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.001320926971230792</v>
+      </c>
+      <c r="C92">
+        <v>-0.1354066138229647</v>
+      </c>
+      <c r="D92">
+        <v>-0.3273887279513451</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>0.0001929215271155205</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.005177928377930656</v>
+      </c>
+      <c r="C93">
+        <v>-0.1051104063839449</v>
+      </c>
+      <c r="D93">
+        <v>-0.3011782392290853</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.003958377886722103</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02287992158253745</v>
+      </c>
+      <c r="C94">
+        <v>-0.1463427115790567</v>
+      </c>
+      <c r="D94">
+        <v>0.0510202029972044</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.004743207046803736</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01661774243105336</v>
+      </c>
+      <c r="C95">
+        <v>-0.1246135951523236</v>
+      </c>
+      <c r="D95">
+        <v>0.0597128911100357</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.001772966246190314</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03691568883974225</v>
+      </c>
+      <c r="C97">
+        <v>-0.2146291878442514</v>
+      </c>
+      <c r="D97">
+        <v>-0.0008072971769868064</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.002247430392885173</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.0373089419856675</v>
+      </c>
+      <c r="C98">
+        <v>-0.2495551691656949</v>
+      </c>
+      <c r="D98">
+        <v>0.04868199535445311</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9849706677571186</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9818624624541626</v>
+      </c>
+      <c r="C99">
+        <v>0.1192229990620112</v>
+      </c>
+      <c r="D99">
+        <v>-0.02696401848782403</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.00125957829220436</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003519747772189086</v>
+      </c>
+      <c r="C101">
+        <v>-0.05125222861649362</v>
+      </c>
+      <c r="D101">
+        <v>0.006885947896493916</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
